--- a/صيدليات دكتور مصطفي طلعت_2026-01-15_12-43.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-15_12-43.xlsx
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>TELFAST 180MG 20 F.C. TABS</t>
+  </si>
+  <si>
+    <t>TOP-4 CREAM 15 GM</t>
   </si>
   <si>
     <t>URIPAN 5MG 30 TAB.</t>
@@ -1297,17 +1300,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1323,17 +1326,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1349,13 +1352,13 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
@@ -1375,13 +1378,13 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
@@ -1401,17 +1404,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>66.640000000000001</v>
+        <v>56</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1427,17 +1430,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>-375</v>
+        <v>66.640000000000001</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1453,17 +1456,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>14</v>
+        <v>-375</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1485,11 +1488,11 @@
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1505,13 +1508,13 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
@@ -1523,7 +1526,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1531,51 +1534,77 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="35" ht="26.25" customHeight="1">
-      <c r="K35" s="10">
-        <v>1134.1400000000001</v>
-      </c>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-    </row>
-    <row r="36" ht="16.5" customHeight="1">
-      <c t="s" r="A36" s="11">
+    <row r="35" ht="25.5" customHeight="1">
+      <c r="A35" s="6">
+        <v>32</v>
+      </c>
+      <c t="s" r="B35" s="7">
         <v>50</v>
       </c>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c t="s" r="F36" s="12">
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c t="s" r="H35" s="8">
+        <v>13</v>
+      </c>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="9">
+        <v>50</v>
+      </c>
+      <c r="M35" s="9"/>
+      <c t="s" r="N35" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="K36" s="10">
+        <v>1153.1400000000001</v>
+      </c>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+    </row>
+    <row r="37" ht="16.5" customHeight="1">
+      <c t="s" r="A37" s="11">
         <v>51</v>
       </c>
-      <c r="G36" s="12"/>
-      <c r="H36" s="13"/>
-      <c t="s" r="I36" s="14">
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c t="s" r="F37" s="12">
         <v>52</v>
       </c>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="14"/>
-      <c r="N36" s="14"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="13"/>
+      <c t="s" r="I37" s="14">
+        <v>53</v>
+      </c>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="104">
+  <mergeCells count="107">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1676,10 +1705,13 @@
     <mergeCell ref="B34:G34"/>
     <mergeCell ref="H34:K34"/>
     <mergeCell ref="L34:M34"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="I36:N36"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="I37:N37"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
